--- a/KSFramework/Product/SettingSource/Billboard.xlsx
+++ b/KSFramework/Product/SettingSource/Billboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18615" windowHeight="6675"/>
+    <workbookView windowWidth="21000" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">mrkelly:
+          <t>mrkelly:
 主键可以是数字，也可以任何字符串。这里示例一个由两个列组合的主键</t>
         </r>
       </text>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -101,6 +100,15 @@
   </si>
   <si>
     <t>#我是帅气的注释行</t>
+  </si>
+  <si>
+    <t>Billboard4</t>
+  </si>
+  <si>
+    <t>公告4</t>
+  </si>
+  <si>
+    <t>公告内容4444444444444444444444</t>
   </si>
 </sst>
 </file>
@@ -108,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -133,22 +141,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -158,40 +159,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -204,49 +219,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -272,91 +280,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +419,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,48 +489,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,17 +512,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,149 +520,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,16 +672,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -737,6 +739,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -805,6 +808,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1230,24 +1238,23 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="3" width="29.375" customWidth="1"/>
@@ -1261,70 +1268,70 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1333,8 +1340,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" customFormat="1" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:D7"/>
+  <autoFilter ref="A3:D7">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
@@ -1344,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1361,7 +1381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
